--- a/output/UNIMAR HABIBLER(1).xlsx
+++ b/output/UNIMAR HABIBLER(1).xlsx
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>692.7</v>
+        <v>-692.7</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>761.74</v>
+        <v>-761.74</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>116.42</v>
+        <v>-116.42</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <v>185.56</v>
+        <v>-185.56</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>

--- a/output/UNIMAR HABIBLER(1).xlsx
+++ b/output/UNIMAR HABIBLER(1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="8">
   <si>
     <t>GELIBOLU 380 UNIMAR KUZEY</t>
   </si>
@@ -570,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>112.48</v>
+        <v>110.91</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -579,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>51.63</v>
+        <v>50.92</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
@@ -593,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>112</v>
+        <v>110.44</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -602,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>51.09</v>
+        <v>50.38</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>111.78</v>
+        <v>110.25</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -625,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>50.81</v>
+        <v>50.11</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>112.82</v>
+        <v>111.27</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>51.78</v>
+        <v>51.07</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>112.06</v>
+        <v>110.51</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -671,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="F12">
-        <v>50.95</v>
+        <v>50.24</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>161.8</v>
+        <v>154.9</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -694,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="F13">
-        <v>51.52</v>
+        <v>50.66</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
@@ -708,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>311.69</v>
+        <v>298.11</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -717,7 +717,7 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>51.99</v>
+        <v>51.1</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>614.92</v>
+        <v>858.55</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -763,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="F16">
-        <v>61.85</v>
+        <v>50.14</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
@@ -777,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>376.61</v>
+        <v>200.43</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -786,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="F17">
-        <v>124.56</v>
+        <v>49.68</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
@@ -799,8 +799,8 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
+      <c r="C18">
+        <v>104.85</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -808,8 +808,8 @@
       <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="F18" t="s">
-        <v>7</v>
+      <c r="F18">
+        <v>49.44</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
@@ -823,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>826.37</v>
+        <v>105.09</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="F19">
-        <v>389.87</v>
+        <v>49.46</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
@@ -846,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>827.02</v>
+        <v>105.33</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -855,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="F20">
-        <v>389.41</v>
+        <v>49.47</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
@@ -869,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>827.6799999999999</v>
+        <v>105.58</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -878,7 +878,7 @@
         <v>7</v>
       </c>
       <c r="F21">
-        <v>388.95</v>
+        <v>49.49</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
@@ -892,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>828.33</v>
+        <v>105.82</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -901,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="F22">
-        <v>388.5</v>
+        <v>49.5</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
@@ -914,8 +914,8 @@
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23">
-        <v>829.1799999999999</v>
+      <c r="C23" t="s">
+        <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -924,7 +924,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>388.1</v>
+        <v>49.51</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
@@ -947,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="F24">
-        <v>387.63</v>
+        <v>49.53</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
@@ -970,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="F25">
-        <v>387.18</v>
+        <v>49.55</v>
       </c>
       <c r="G25" t="s">
         <v>7</v>
@@ -993,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="F26">
-        <v>386.73</v>
+        <v>49.56</v>
       </c>
       <c r="G26" t="s">
         <v>7</v>
@@ -1016,7 +1016,7 @@
         <v>7</v>
       </c>
       <c r="F27">
-        <v>386.27</v>
+        <v>49.58</v>
       </c>
       <c r="G27" t="s">
         <v>7</v>
@@ -1039,7 +1039,7 @@
         <v>7</v>
       </c>
       <c r="F28">
-        <v>49.87</v>
+        <v>49.68</v>
       </c>
       <c r="G28" t="s">
         <v>7</v>
@@ -1062,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="F29">
-        <v>50.49</v>
+        <v>50.29</v>
       </c>
       <c r="G29" t="s">
         <v>7</v>
